--- a/Fågelinfo.xlsx
+++ b/Fågelinfo.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="411">
   <si>
     <t>Namn</t>
   </si>
@@ -22,7 +22,7 @@
     <t>Vingspann</t>
   </si>
   <si>
-    <t>Länk till inspelning</t>
+    <t xml:space="preserve"> klippt ljud</t>
   </si>
   <si>
     <t>Cat.nr</t>
@@ -37,6 +37,9 @@
     <t>Tetrao urogallus</t>
   </si>
   <si>
+    <t>ja</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -58,9 +61,6 @@
     <t>Lyrurus tetrix</t>
   </si>
   <si>
-    <t>https://xeno-canto.org/explore?query=Lyrurus%20tetrix%20lic:%22by-sa%22</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -79,15 +79,12 @@
     <t>Tetrastes bonasia</t>
   </si>
   <si>
-    <t>https://xeno-canto.org/explore?query=Tetrastes%20bonasia%20lic:%22by-sa%22</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>XC103672</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>XC946780</t>
     </r>
   </si>
   <si>
@@ -100,15 +97,12 @@
     <t>Columba oenas</t>
   </si>
   <si>
-    <t>https://xeno-canto.org/explore?query=Columba%20oenas%20lic:%22by-sa%22</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>XC909033</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>XC930402</t>
     </r>
   </si>
   <si>
@@ -121,9 +115,6 @@
     <t>Columba palumbus</t>
   </si>
   <si>
-    <t>https://xeno-canto.org/explore?query=Columba%20palumbus%20lic:%22by-sa%22</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -142,9 +133,6 @@
     <t>Streptopelia decaocto</t>
   </si>
   <si>
-    <t>https://xeno-canto.org/explore?query=Streptopelia%20decaocto%20lic:%22by-sa%22</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <color rgb="FF1155CC"/>
@@ -161,9 +149,6 @@
   </si>
   <si>
     <t>Cyanistes caeruleus</t>
-  </si>
-  <si>
-    <t>https://xeno-canto.org/explore?query=Cyanistes%20caeruleus%20lic:%22by-sa%22</t>
   </si>
   <si>
     <r>
@@ -576,7 +561,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>XC957126</t>
+      <t>XC924341</t>
     </r>
   </si>
   <si>
@@ -876,7 +861,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>XC578092</t>
+      <t>XC818170</t>
     </r>
   </si>
   <si>
@@ -984,7 +969,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>XC986002</t>
+      <t>XC978839</t>
     </r>
   </si>
   <si>
@@ -1596,7 +1581,7 @@
         <color rgb="FF1155CC"/>
         <u/>
       </rPr>
-      <t>XC900445</t>
+      <t>XC418390</t>
     </r>
   </si>
   <si>
@@ -1611,13 +1596,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Ubuntu, sans-serif"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
-      </rPr>
-      <t>XC898023</t>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>XC986239</t>
     </r>
   </si>
   <si>
@@ -1686,13 +1668,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Ubuntu, sans-serif"/>
-        <b/>
-        <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
-      </rPr>
-      <t>XC549215</t>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>XC1003213</t>
     </r>
   </si>
   <si>
@@ -1707,12 +1686,10 @@
   <si>
     <r>
       <rPr>
-        <rFont val="Ubuntu, sans-serif"/>
-        <color rgb="FF1155CC"/>
-        <sz val="9.0"/>
-        <u/>
-      </rPr>
-      <t>XC432891</t>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>XC1006600</t>
     </r>
   </si>
   <si>
@@ -1840,7 +1817,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1896,14 +1873,8 @@
       <color rgb="FF202122"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <u/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Ubuntu"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1916,12 +1887,6 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFE6E6E6"/>
-        <bgColor rgb="FFE6E6E6"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border/>
@@ -1929,12 +1894,15 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
@@ -1945,8 +1913,11 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
@@ -1960,8 +1931,8 @@
     <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2194,10 +2165,10 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -2208,36 +2179,39 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>95.0</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>8</v>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1">
         <v>77.0</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -2254,1910 +2228,4718 @@
       <c r="C4" s="1">
         <v>51.0</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>20</v>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>63.0</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>25</v>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C6" s="1">
         <v>71.0</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>29</v>
+      <c r="D6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1">
         <v>50.0</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>34</v>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>30</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1">
         <v>19.0</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>39</v>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C9" s="1">
         <v>21.0</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>43</v>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <v>26.0</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="1">
         <v>36.0</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6" t="s">
-        <v>51</v>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C12" s="1">
         <v>18.0</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>55</v>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C13" s="1">
         <v>220.0</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>59</v>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C14" s="1">
         <v>220.0</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>63</v>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>58</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1">
         <v>167.0</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>67</v>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C16" s="1">
         <v>14.0</v>
       </c>
-      <c r="E16" s="2" t="s">
-        <v>71</v>
+      <c r="D16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C17" s="1">
         <v>21.0</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>75</v>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C18" s="1">
         <v>27.0</v>
       </c>
-      <c r="E18" s="4" t="s">
-        <v>79</v>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>74</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1">
         <v>159.0</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>83</v>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>78</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C20" s="1">
         <v>111.0</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>87</v>
+      <c r="D20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C21" s="1">
         <v>88.0</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>91</v>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C22" s="1">
         <v>40.0</v>
       </c>
-      <c r="E22" s="4" t="s">
-        <v>95</v>
+      <c r="D22" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>90</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="8" t="s">
-        <v>97</v>
+      <c r="A23" s="10" t="s">
+        <v>92</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1">
         <v>154.0</v>
       </c>
-      <c r="E23" s="4" t="s">
-        <v>99</v>
+      <c r="D23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C24" s="1">
         <v>105.0</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>103</v>
+      <c r="D24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>98</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C25" s="1">
         <v>159.0</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>107</v>
+      <c r="D25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C26" s="1">
         <v>107.0</v>
       </c>
-      <c r="E26" s="4" t="s">
-        <v>111</v>
+      <c r="D26" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>106</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="C27" s="1">
         <v>57.0</v>
       </c>
-      <c r="E27" s="4" t="s">
-        <v>115</v>
+      <c r="D27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C28" s="1">
         <v>201.0</v>
       </c>
-      <c r="E28" s="4" t="s">
-        <v>119</v>
+      <c r="D28" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C29" s="1">
         <v>98.0</v>
       </c>
-      <c r="E29" s="4" t="s">
-        <v>123</v>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>118</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C30" s="1">
         <v>60.0</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>127</v>
+      <c r="D30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>122</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="C31" s="1">
         <v>47.0</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>131</v>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>126</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="C32" s="1">
         <v>42.0</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>135</v>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>130</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="C33" s="1">
         <v>133.0</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>139</v>
+      <c r="D33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C34" s="1">
         <v>67.0</v>
       </c>
-      <c r="E34" s="4" t="s">
-        <v>143</v>
+      <c r="D34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C35" s="1">
         <v>75.0</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>147</v>
+      <c r="D35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C36" s="1">
         <v>93.0</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>151</v>
+      <c r="D36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C37" s="1">
         <v>156.0</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>155</v>
+      <c r="D37" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C38" s="1">
         <v>111.0</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>159</v>
+      <c r="D38" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>154</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C39" s="1">
         <v>109.0</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>163</v>
+      <c r="D39" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C40" s="1">
         <v>200.0</v>
       </c>
-      <c r="E40" s="4" t="s">
-        <v>167</v>
+      <c r="D40" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C41" s="1">
         <v>181.0</v>
       </c>
-      <c r="E41" s="4" t="s">
-        <v>171</v>
+      <c r="D41" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C42" s="1">
         <v>135.0</v>
       </c>
-      <c r="E42" s="4" t="s">
-        <v>175</v>
+      <c r="D42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>170</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C43" s="1">
         <v>115.0</v>
       </c>
-      <c r="E43" s="4" t="s">
-        <v>179</v>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C44" s="1">
         <v>165.0</v>
       </c>
-      <c r="E44" s="4" t="s">
-        <v>183</v>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C45" s="1">
         <v>208.0</v>
       </c>
-      <c r="E45" s="4" t="s">
-        <v>187</v>
+      <c r="D45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>182</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C46" s="1">
         <v>69.0</v>
       </c>
-      <c r="E46" s="4" t="s">
-        <v>191</v>
+      <c r="D46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>186</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C47" s="1">
         <v>105.0</v>
       </c>
-      <c r="E47" s="4" t="s">
-        <v>193</v>
+      <c r="D47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="C48" s="1">
         <v>108.0</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>197</v>
+      <c r="D48" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>192</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C49" s="1">
         <v>143.0</v>
       </c>
-      <c r="E49" s="4" t="s">
-        <v>201</v>
+      <c r="D49" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>196</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C50" s="1">
         <v>215.0</v>
       </c>
-      <c r="E50" s="4" t="s">
-        <v>205</v>
+      <c r="D50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C51" s="1">
         <v>120.0</v>
       </c>
-      <c r="E51" s="4" t="s">
-        <v>209</v>
+      <c r="D51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C52" s="1">
         <v>88.0</v>
       </c>
-      <c r="E52" s="4" t="s">
-        <v>213</v>
+      <c r="D52" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>208</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C53" s="1">
         <v>56.0</v>
       </c>
-      <c r="E53" s="4" t="s">
-        <v>217</v>
+      <c r="D53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>212</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="C54" s="1">
         <v>89.0</v>
       </c>
-      <c r="E54" s="4" t="s">
-        <v>221</v>
+      <c r="D54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>216</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C55" s="1">
         <v>92.0</v>
       </c>
-      <c r="E55" s="4" t="s">
-        <v>225</v>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>220</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C56" s="1">
         <v>73.0</v>
       </c>
-      <c r="E56" s="4" t="s">
-        <v>229</v>
+      <c r="D56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>224</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="C57" s="1">
         <v>56.0</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>233</v>
+      <c r="D57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C58" s="1">
         <v>43.0</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>237</v>
+      <c r="D58" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>232</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="B59" s="9" t="s">
-        <v>240</v>
+        <v>234</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>235</v>
       </c>
       <c r="C59" s="1">
         <v>51.0</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>241</v>
+      <c r="D59" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>236</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C60" s="1">
         <v>69.0</v>
       </c>
-      <c r="E60" s="4" t="s">
-        <v>245</v>
+      <c r="D60" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C61" s="1">
         <v>123.0</v>
       </c>
-      <c r="E61" s="4" t="s">
-        <v>249</v>
+      <c r="D61" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>244</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C62" s="1">
         <v>20.0</v>
       </c>
-      <c r="E62" s="4" t="s">
-        <v>253</v>
+      <c r="D62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>248</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C63" s="1">
         <v>32.0</v>
       </c>
-      <c r="E63" s="4" t="s">
-        <v>257</v>
+      <c r="D63" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>252</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C64" s="1">
         <v>28.0</v>
       </c>
-      <c r="E64" s="4" t="s">
-        <v>261</v>
+      <c r="D64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>256</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C65" s="1">
         <v>18.0</v>
       </c>
-      <c r="E65" s="4" t="s">
-        <v>265</v>
+      <c r="D65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>260</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C66" s="1">
         <v>19.0</v>
       </c>
-      <c r="E66" s="4" t="s">
-        <v>269</v>
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C67" s="1">
         <v>34.0</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>273</v>
+      <c r="D67" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>268</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C68" s="1">
         <v>25.0</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>277</v>
+      <c r="D68" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C69" s="1">
         <v>19.0</v>
       </c>
-      <c r="E69" s="4" t="s">
-        <v>281</v>
+      <c r="D69" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="C70" s="1">
         <v>40.0</v>
       </c>
-      <c r="E70" s="4" t="s">
-        <v>285</v>
+      <c r="D70" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>280</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C71" s="1">
         <v>23.0</v>
       </c>
-      <c r="E71" s="4" t="s">
-        <v>289</v>
+      <c r="D71" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C72" s="1">
         <v>23.0</v>
       </c>
-      <c r="E72" s="4" t="s">
-        <v>293</v>
+      <c r="D72" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>288</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C73" s="1">
         <v>21.0</v>
       </c>
-      <c r="E73" s="4" t="s">
-        <v>297</v>
+      <c r="D73" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C74" s="1">
         <v>26.0</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>301</v>
+      <c r="D74" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>296</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C75" s="1">
         <v>33.0</v>
       </c>
-      <c r="E75" s="4" t="s">
-        <v>305</v>
+      <c r="D75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>300</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C76" s="1">
         <v>22.0</v>
       </c>
-      <c r="E76" s="4" t="s">
-        <v>309</v>
+      <c r="D76" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>304</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C77" s="1">
         <v>23.0</v>
       </c>
-      <c r="E77" s="4" t="s">
-        <v>313</v>
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>308</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="C78" s="1">
         <v>22.0</v>
       </c>
-      <c r="E78" s="4" t="s">
-        <v>317</v>
+      <c r="D78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>312</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C79" s="1">
         <v>28.0</v>
       </c>
-      <c r="E79" s="4" t="s">
-        <v>321</v>
+      <c r="D79" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>316</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C80" s="1">
         <v>23.0</v>
       </c>
-      <c r="E80" s="4" t="s">
-        <v>325</v>
+      <c r="D80" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>320</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C81" s="1">
         <v>29.0</v>
       </c>
-      <c r="E81" s="4" t="s">
-        <v>329</v>
+      <c r="D81" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>324</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C82" s="1">
         <v>63.0</v>
       </c>
-      <c r="E82" s="4" t="s">
-        <v>333</v>
+      <c r="D82" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>328</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="C83" s="1">
         <v>84.0</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>337</v>
+      <c r="D83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>332</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C84" s="1">
         <v>81.0</v>
       </c>
-      <c r="E84" s="4" t="s">
-        <v>341</v>
+      <c r="D84" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>336</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C85" s="1">
         <v>69.0</v>
       </c>
-      <c r="E85" s="4" t="s">
-        <v>345</v>
+      <c r="D85" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G85" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C86" s="1">
         <v>76.0</v>
       </c>
-      <c r="E86" s="4" t="s">
-        <v>349</v>
+      <c r="D86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>344</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C87" s="1">
         <v>100.0</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>353</v>
+      <c r="D87" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>348</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C88" s="1">
         <v>77.0</v>
       </c>
-      <c r="E88" s="7" t="s">
-        <v>357</v>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>352</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C89" s="1">
         <v>74.0</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>361</v>
+      <c r="D89" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>356</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="C90" s="1">
         <v>70.0</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>365</v>
+      <c r="D90" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>360</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C91" s="1">
         <v>86.0</v>
       </c>
-      <c r="E91" s="4" t="s">
-        <v>369</v>
+      <c r="D91" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>364</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="C92" s="1">
         <v>34.0</v>
       </c>
-      <c r="E92" s="7" t="s">
-        <v>373</v>
+      <c r="D92" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>368</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>374</v>
+        <v>369</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="C93" s="1">
         <v>75.0</v>
       </c>
-      <c r="E93" s="10" t="s">
-        <v>377</v>
+      <c r="D93" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>372</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="C94" s="1">
         <v>66.0</v>
       </c>
-      <c r="E94" s="4" t="s">
+      <c r="D94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="D95" s="12"/>
+      <c r="F95" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="D96" s="12"/>
+      <c r="F96" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="D97" s="12"/>
+      <c r="F97" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="D98" s="12"/>
+      <c r="F98" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="D99" s="12"/>
+      <c r="F99" s="1" t="s">
         <v>381</v>
       </c>
-      <c r="F94" s="1" t="s">
+    </row>
+    <row r="100">
+      <c r="D100" s="12"/>
+      <c r="F100" s="1" t="s">
         <v>382</v>
       </c>
-      <c r="G94" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="F95" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="F96" s="1" t="s">
+    </row>
+    <row r="101">
+      <c r="D101" s="12"/>
+      <c r="F101" s="1" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="97">
-      <c r="F97" s="1" t="s">
+    <row r="102">
+      <c r="D102" s="12"/>
+      <c r="F102" s="1" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="98">
-      <c r="F98" s="1" t="s">
+    <row r="103">
+      <c r="D103" s="12"/>
+      <c r="F103" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="99">
-      <c r="F99" s="1" t="s">
+    <row r="104">
+      <c r="D104" s="12"/>
+      <c r="F104" s="1" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="100">
-      <c r="F100" s="1" t="s">
+    <row r="105">
+      <c r="D105" s="12"/>
+      <c r="F105" s="1" t="s">
         <v>387</v>
       </c>
     </row>
-    <row r="101">
-      <c r="F101" s="1" t="s">
+    <row r="106">
+      <c r="D106" s="12"/>
+      <c r="F106" s="1" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="102">
-      <c r="F102" s="1" t="s">
+    <row r="107">
+      <c r="D107" s="12"/>
+      <c r="F107" s="1" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="103">
-      <c r="F103" s="1" t="s">
+    <row r="108">
+      <c r="D108" s="12"/>
+      <c r="F108" s="1" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="104">
-      <c r="F104" s="1" t="s">
+    <row r="109">
+      <c r="D109" s="12"/>
+      <c r="F109" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="105">
-      <c r="F105" s="1" t="s">
+    <row r="110">
+      <c r="D110" s="12"/>
+      <c r="F110" s="1" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="106">
-      <c r="F106" s="1" t="s">
+    <row r="111">
+      <c r="D111" s="12"/>
+      <c r="F111" s="1" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="107">
-      <c r="F107" s="1" t="s">
+    <row r="112">
+      <c r="D112" s="12"/>
+      <c r="F112" s="1" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="108">
-      <c r="F108" s="1" t="s">
+    <row r="113">
+      <c r="D113" s="12"/>
+      <c r="F113" s="1" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="109">
-      <c r="F109" s="1" t="s">
+    <row r="114">
+      <c r="D114" s="12"/>
+      <c r="F114" s="1" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="110">
-      <c r="F110" s="1" t="s">
+    <row r="115">
+      <c r="D115" s="12"/>
+      <c r="F115" s="1" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="111">
-      <c r="F111" s="1" t="s">
+    <row r="116">
+      <c r="D116" s="12"/>
+      <c r="F116" s="1" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="112">
-      <c r="F112" s="1" t="s">
+    <row r="117">
+      <c r="D117" s="12"/>
+      <c r="F117" s="1" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="113">
-      <c r="F113" s="1" t="s">
+    <row r="118">
+      <c r="D118" s="12"/>
+      <c r="F118" s="1" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="114">
-      <c r="F114" s="1" t="s">
+    <row r="119">
+      <c r="D119" s="12"/>
+      <c r="F119" s="1" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="115">
-      <c r="F115" s="1" t="s">
+    <row r="120">
+      <c r="D120" s="12"/>
+      <c r="F120" s="1" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="116">
-      <c r="F116" s="1" t="s">
+    <row r="121">
+      <c r="D121" s="12"/>
+      <c r="F121" s="1" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="117">
-      <c r="F117" s="1" t="s">
+    <row r="122">
+      <c r="D122" s="12"/>
+      <c r="F122" s="1" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="118">
-      <c r="F118" s="1" t="s">
+    <row r="123">
+      <c r="D123" s="12"/>
+      <c r="F123" s="1" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="119">
-      <c r="F119" s="1" t="s">
+    <row r="124">
+      <c r="D124" s="12"/>
+      <c r="F124" s="1" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="120">
-      <c r="F120" s="1" t="s">
+    <row r="125">
+      <c r="D125" s="12"/>
+      <c r="F125" s="1" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="121">
-      <c r="F121" s="1" t="s">
+    <row r="126">
+      <c r="D126" s="12"/>
+      <c r="F126" s="1" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="122">
-      <c r="F122" s="1" t="s">
+    <row r="127">
+      <c r="D127" s="12"/>
+      <c r="F127" s="1" t="s">
         <v>409</v>
       </c>
     </row>
-    <row r="123">
-      <c r="F123" s="1" t="s">
+    <row r="128">
+      <c r="D128" s="12"/>
+      <c r="F128" s="1" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="124">
-      <c r="F124" s="1" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="F125" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="F126" s="1" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="F127" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="F128" s="1" t="s">
-        <v>415</v>
-      </c>
+    <row r="129">
+      <c r="D129" s="12"/>
+    </row>
+    <row r="130">
+      <c r="D130" s="12"/>
+    </row>
+    <row r="131">
+      <c r="D131" s="12"/>
+    </row>
+    <row r="132">
+      <c r="D132" s="12"/>
+    </row>
+    <row r="133">
+      <c r="D133" s="12"/>
+    </row>
+    <row r="134">
+      <c r="D134" s="12"/>
+    </row>
+    <row r="135">
+      <c r="D135" s="12"/>
+    </row>
+    <row r="136">
+      <c r="D136" s="12"/>
+    </row>
+    <row r="137">
+      <c r="D137" s="12"/>
+    </row>
+    <row r="138">
+      <c r="D138" s="12"/>
+    </row>
+    <row r="139">
+      <c r="D139" s="12"/>
+    </row>
+    <row r="140">
+      <c r="D140" s="12"/>
+    </row>
+    <row r="141">
+      <c r="D141" s="12"/>
+    </row>
+    <row r="142">
+      <c r="D142" s="12"/>
+    </row>
+    <row r="143">
+      <c r="D143" s="12"/>
+    </row>
+    <row r="144">
+      <c r="D144" s="12"/>
+    </row>
+    <row r="145">
+      <c r="D145" s="12"/>
+    </row>
+    <row r="146">
+      <c r="D146" s="12"/>
+    </row>
+    <row r="147">
+      <c r="D147" s="12"/>
+    </row>
+    <row r="148">
+      <c r="D148" s="12"/>
+    </row>
+    <row r="149">
+      <c r="D149" s="12"/>
+    </row>
+    <row r="150">
+      <c r="D150" s="12"/>
+    </row>
+    <row r="151">
+      <c r="D151" s="12"/>
+    </row>
+    <row r="152">
+      <c r="D152" s="12"/>
+    </row>
+    <row r="153">
+      <c r="D153" s="12"/>
+    </row>
+    <row r="154">
+      <c r="D154" s="12"/>
+    </row>
+    <row r="155">
+      <c r="D155" s="12"/>
+    </row>
+    <row r="156">
+      <c r="D156" s="12"/>
+    </row>
+    <row r="157">
+      <c r="D157" s="12"/>
+    </row>
+    <row r="158">
+      <c r="D158" s="12"/>
+    </row>
+    <row r="159">
+      <c r="D159" s="12"/>
+    </row>
+    <row r="160">
+      <c r="D160" s="12"/>
+    </row>
+    <row r="161">
+      <c r="D161" s="12"/>
+    </row>
+    <row r="162">
+      <c r="D162" s="12"/>
+    </row>
+    <row r="163">
+      <c r="D163" s="12"/>
+    </row>
+    <row r="164">
+      <c r="D164" s="12"/>
+    </row>
+    <row r="165">
+      <c r="D165" s="12"/>
+    </row>
+    <row r="166">
+      <c r="D166" s="12"/>
+    </row>
+    <row r="167">
+      <c r="D167" s="12"/>
+    </row>
+    <row r="168">
+      <c r="D168" s="12"/>
+    </row>
+    <row r="169">
+      <c r="D169" s="12"/>
+    </row>
+    <row r="170">
+      <c r="D170" s="12"/>
+    </row>
+    <row r="171">
+      <c r="D171" s="12"/>
+    </row>
+    <row r="172">
+      <c r="D172" s="12"/>
+    </row>
+    <row r="173">
+      <c r="D173" s="12"/>
+    </row>
+    <row r="174">
+      <c r="D174" s="12"/>
+    </row>
+    <row r="175">
+      <c r="D175" s="12"/>
+    </row>
+    <row r="176">
+      <c r="D176" s="12"/>
+    </row>
+    <row r="177">
+      <c r="D177" s="12"/>
+    </row>
+    <row r="178">
+      <c r="D178" s="12"/>
+    </row>
+    <row r="179">
+      <c r="D179" s="12"/>
+    </row>
+    <row r="180">
+      <c r="D180" s="12"/>
+    </row>
+    <row r="181">
+      <c r="D181" s="12"/>
+    </row>
+    <row r="182">
+      <c r="D182" s="12"/>
+    </row>
+    <row r="183">
+      <c r="D183" s="12"/>
+    </row>
+    <row r="184">
+      <c r="D184" s="12"/>
+    </row>
+    <row r="185">
+      <c r="D185" s="12"/>
+    </row>
+    <row r="186">
+      <c r="D186" s="12"/>
+    </row>
+    <row r="187">
+      <c r="D187" s="12"/>
+    </row>
+    <row r="188">
+      <c r="D188" s="12"/>
+    </row>
+    <row r="189">
+      <c r="D189" s="12"/>
+    </row>
+    <row r="190">
+      <c r="D190" s="12"/>
+    </row>
+    <row r="191">
+      <c r="D191" s="12"/>
+    </row>
+    <row r="192">
+      <c r="D192" s="12"/>
+    </row>
+    <row r="193">
+      <c r="D193" s="12"/>
+    </row>
+    <row r="194">
+      <c r="D194" s="12"/>
+    </row>
+    <row r="195">
+      <c r="D195" s="12"/>
+    </row>
+    <row r="196">
+      <c r="D196" s="12"/>
+    </row>
+    <row r="197">
+      <c r="D197" s="12"/>
+    </row>
+    <row r="198">
+      <c r="D198" s="12"/>
+    </row>
+    <row r="199">
+      <c r="D199" s="12"/>
+    </row>
+    <row r="200">
+      <c r="D200" s="12"/>
+    </row>
+    <row r="201">
+      <c r="D201" s="12"/>
+    </row>
+    <row r="202">
+      <c r="D202" s="12"/>
+    </row>
+    <row r="203">
+      <c r="D203" s="12"/>
+    </row>
+    <row r="204">
+      <c r="D204" s="12"/>
+    </row>
+    <row r="205">
+      <c r="D205" s="12"/>
+    </row>
+    <row r="206">
+      <c r="D206" s="12"/>
+    </row>
+    <row r="207">
+      <c r="D207" s="12"/>
+    </row>
+    <row r="208">
+      <c r="D208" s="12"/>
+    </row>
+    <row r="209">
+      <c r="D209" s="12"/>
+    </row>
+    <row r="210">
+      <c r="D210" s="12"/>
+    </row>
+    <row r="211">
+      <c r="D211" s="12"/>
+    </row>
+    <row r="212">
+      <c r="D212" s="12"/>
+    </row>
+    <row r="213">
+      <c r="D213" s="12"/>
+    </row>
+    <row r="214">
+      <c r="D214" s="12"/>
+    </row>
+    <row r="215">
+      <c r="D215" s="12"/>
+    </row>
+    <row r="216">
+      <c r="D216" s="12"/>
+    </row>
+    <row r="217">
+      <c r="D217" s="12"/>
+    </row>
+    <row r="218">
+      <c r="D218" s="12"/>
+    </row>
+    <row r="219">
+      <c r="D219" s="12"/>
+    </row>
+    <row r="220">
+      <c r="D220" s="12"/>
+    </row>
+    <row r="221">
+      <c r="D221" s="12"/>
+    </row>
+    <row r="222">
+      <c r="D222" s="12"/>
+    </row>
+    <row r="223">
+      <c r="D223" s="12"/>
+    </row>
+    <row r="224">
+      <c r="D224" s="12"/>
+    </row>
+    <row r="225">
+      <c r="D225" s="12"/>
+    </row>
+    <row r="226">
+      <c r="D226" s="12"/>
+    </row>
+    <row r="227">
+      <c r="D227" s="12"/>
+    </row>
+    <row r="228">
+      <c r="D228" s="12"/>
+    </row>
+    <row r="229">
+      <c r="D229" s="12"/>
+    </row>
+    <row r="230">
+      <c r="D230" s="12"/>
+    </row>
+    <row r="231">
+      <c r="D231" s="12"/>
+    </row>
+    <row r="232">
+      <c r="D232" s="12"/>
+    </row>
+    <row r="233">
+      <c r="D233" s="12"/>
+    </row>
+    <row r="234">
+      <c r="D234" s="12"/>
+    </row>
+    <row r="235">
+      <c r="D235" s="12"/>
+    </row>
+    <row r="236">
+      <c r="D236" s="12"/>
+    </row>
+    <row r="237">
+      <c r="D237" s="12"/>
+    </row>
+    <row r="238">
+      <c r="D238" s="12"/>
+    </row>
+    <row r="239">
+      <c r="D239" s="12"/>
+    </row>
+    <row r="240">
+      <c r="D240" s="12"/>
+    </row>
+    <row r="241">
+      <c r="D241" s="12"/>
+    </row>
+    <row r="242">
+      <c r="D242" s="12"/>
+    </row>
+    <row r="243">
+      <c r="D243" s="12"/>
+    </row>
+    <row r="244">
+      <c r="D244" s="12"/>
+    </row>
+    <row r="245">
+      <c r="D245" s="12"/>
+    </row>
+    <row r="246">
+      <c r="D246" s="12"/>
+    </row>
+    <row r="247">
+      <c r="D247" s="12"/>
+    </row>
+    <row r="248">
+      <c r="D248" s="12"/>
+    </row>
+    <row r="249">
+      <c r="D249" s="12"/>
+    </row>
+    <row r="250">
+      <c r="D250" s="12"/>
+    </row>
+    <row r="251">
+      <c r="D251" s="12"/>
+    </row>
+    <row r="252">
+      <c r="D252" s="12"/>
+    </row>
+    <row r="253">
+      <c r="D253" s="12"/>
+    </row>
+    <row r="254">
+      <c r="D254" s="12"/>
+    </row>
+    <row r="255">
+      <c r="D255" s="12"/>
+    </row>
+    <row r="256">
+      <c r="D256" s="12"/>
+    </row>
+    <row r="257">
+      <c r="D257" s="12"/>
+    </row>
+    <row r="258">
+      <c r="D258" s="12"/>
+    </row>
+    <row r="259">
+      <c r="D259" s="12"/>
+    </row>
+    <row r="260">
+      <c r="D260" s="12"/>
+    </row>
+    <row r="261">
+      <c r="D261" s="12"/>
+    </row>
+    <row r="262">
+      <c r="D262" s="12"/>
+    </row>
+    <row r="263">
+      <c r="D263" s="12"/>
+    </row>
+    <row r="264">
+      <c r="D264" s="12"/>
+    </row>
+    <row r="265">
+      <c r="D265" s="12"/>
+    </row>
+    <row r="266">
+      <c r="D266" s="12"/>
+    </row>
+    <row r="267">
+      <c r="D267" s="12"/>
+    </row>
+    <row r="268">
+      <c r="D268" s="12"/>
+    </row>
+    <row r="269">
+      <c r="D269" s="12"/>
+    </row>
+    <row r="270">
+      <c r="D270" s="12"/>
+    </row>
+    <row r="271">
+      <c r="D271" s="12"/>
+    </row>
+    <row r="272">
+      <c r="D272" s="12"/>
+    </row>
+    <row r="273">
+      <c r="D273" s="12"/>
+    </row>
+    <row r="274">
+      <c r="D274" s="12"/>
+    </row>
+    <row r="275">
+      <c r="D275" s="12"/>
+    </row>
+    <row r="276">
+      <c r="D276" s="12"/>
+    </row>
+    <row r="277">
+      <c r="D277" s="12"/>
+    </row>
+    <row r="278">
+      <c r="D278" s="12"/>
+    </row>
+    <row r="279">
+      <c r="D279" s="12"/>
+    </row>
+    <row r="280">
+      <c r="D280" s="12"/>
+    </row>
+    <row r="281">
+      <c r="D281" s="12"/>
+    </row>
+    <row r="282">
+      <c r="D282" s="12"/>
+    </row>
+    <row r="283">
+      <c r="D283" s="12"/>
+    </row>
+    <row r="284">
+      <c r="D284" s="12"/>
+    </row>
+    <row r="285">
+      <c r="D285" s="12"/>
+    </row>
+    <row r="286">
+      <c r="D286" s="12"/>
+    </row>
+    <row r="287">
+      <c r="D287" s="12"/>
+    </row>
+    <row r="288">
+      <c r="D288" s="12"/>
+    </row>
+    <row r="289">
+      <c r="D289" s="12"/>
+    </row>
+    <row r="290">
+      <c r="D290" s="12"/>
+    </row>
+    <row r="291">
+      <c r="D291" s="12"/>
+    </row>
+    <row r="292">
+      <c r="D292" s="12"/>
+    </row>
+    <row r="293">
+      <c r="D293" s="12"/>
+    </row>
+    <row r="294">
+      <c r="D294" s="12"/>
+    </row>
+    <row r="295">
+      <c r="D295" s="12"/>
+    </row>
+    <row r="296">
+      <c r="D296" s="12"/>
+    </row>
+    <row r="297">
+      <c r="D297" s="12"/>
+    </row>
+    <row r="298">
+      <c r="D298" s="12"/>
+    </row>
+    <row r="299">
+      <c r="D299" s="12"/>
+    </row>
+    <row r="300">
+      <c r="D300" s="12"/>
+    </row>
+    <row r="301">
+      <c r="D301" s="12"/>
+    </row>
+    <row r="302">
+      <c r="D302" s="12"/>
+    </row>
+    <row r="303">
+      <c r="D303" s="12"/>
+    </row>
+    <row r="304">
+      <c r="D304" s="12"/>
+    </row>
+    <row r="305">
+      <c r="D305" s="12"/>
+    </row>
+    <row r="306">
+      <c r="D306" s="12"/>
+    </row>
+    <row r="307">
+      <c r="D307" s="12"/>
+    </row>
+    <row r="308">
+      <c r="D308" s="12"/>
+    </row>
+    <row r="309">
+      <c r="D309" s="12"/>
+    </row>
+    <row r="310">
+      <c r="D310" s="12"/>
+    </row>
+    <row r="311">
+      <c r="D311" s="12"/>
+    </row>
+    <row r="312">
+      <c r="D312" s="12"/>
+    </row>
+    <row r="313">
+      <c r="D313" s="12"/>
+    </row>
+    <row r="314">
+      <c r="D314" s="12"/>
+    </row>
+    <row r="315">
+      <c r="D315" s="12"/>
+    </row>
+    <row r="316">
+      <c r="D316" s="12"/>
+    </row>
+    <row r="317">
+      <c r="D317" s="12"/>
+    </row>
+    <row r="318">
+      <c r="D318" s="12"/>
+    </row>
+    <row r="319">
+      <c r="D319" s="12"/>
+    </row>
+    <row r="320">
+      <c r="D320" s="12"/>
+    </row>
+    <row r="321">
+      <c r="D321" s="12"/>
+    </row>
+    <row r="322">
+      <c r="D322" s="12"/>
+    </row>
+    <row r="323">
+      <c r="D323" s="12"/>
+    </row>
+    <row r="324">
+      <c r="D324" s="12"/>
+    </row>
+    <row r="325">
+      <c r="D325" s="12"/>
+    </row>
+    <row r="326">
+      <c r="D326" s="12"/>
+    </row>
+    <row r="327">
+      <c r="D327" s="12"/>
+    </row>
+    <row r="328">
+      <c r="D328" s="12"/>
+    </row>
+    <row r="329">
+      <c r="D329" s="12"/>
+    </row>
+    <row r="330">
+      <c r="D330" s="12"/>
+    </row>
+    <row r="331">
+      <c r="D331" s="12"/>
+    </row>
+    <row r="332">
+      <c r="D332" s="12"/>
+    </row>
+    <row r="333">
+      <c r="D333" s="12"/>
+    </row>
+    <row r="334">
+      <c r="D334" s="12"/>
+    </row>
+    <row r="335">
+      <c r="D335" s="12"/>
+    </row>
+    <row r="336">
+      <c r="D336" s="12"/>
+    </row>
+    <row r="337">
+      <c r="D337" s="12"/>
+    </row>
+    <row r="338">
+      <c r="D338" s="12"/>
+    </row>
+    <row r="339">
+      <c r="D339" s="12"/>
+    </row>
+    <row r="340">
+      <c r="D340" s="12"/>
+    </row>
+    <row r="341">
+      <c r="D341" s="12"/>
+    </row>
+    <row r="342">
+      <c r="D342" s="12"/>
+    </row>
+    <row r="343">
+      <c r="D343" s="12"/>
+    </row>
+    <row r="344">
+      <c r="D344" s="12"/>
+    </row>
+    <row r="345">
+      <c r="D345" s="12"/>
+    </row>
+    <row r="346">
+      <c r="D346" s="12"/>
+    </row>
+    <row r="347">
+      <c r="D347" s="12"/>
+    </row>
+    <row r="348">
+      <c r="D348" s="12"/>
+    </row>
+    <row r="349">
+      <c r="D349" s="12"/>
+    </row>
+    <row r="350">
+      <c r="D350" s="12"/>
+    </row>
+    <row r="351">
+      <c r="D351" s="12"/>
+    </row>
+    <row r="352">
+      <c r="D352" s="12"/>
+    </row>
+    <row r="353">
+      <c r="D353" s="12"/>
+    </row>
+    <row r="354">
+      <c r="D354" s="12"/>
+    </row>
+    <row r="355">
+      <c r="D355" s="12"/>
+    </row>
+    <row r="356">
+      <c r="D356" s="12"/>
+    </row>
+    <row r="357">
+      <c r="D357" s="12"/>
+    </row>
+    <row r="358">
+      <c r="D358" s="12"/>
+    </row>
+    <row r="359">
+      <c r="D359" s="12"/>
+    </row>
+    <row r="360">
+      <c r="D360" s="12"/>
+    </row>
+    <row r="361">
+      <c r="D361" s="12"/>
+    </row>
+    <row r="362">
+      <c r="D362" s="12"/>
+    </row>
+    <row r="363">
+      <c r="D363" s="12"/>
+    </row>
+    <row r="364">
+      <c r="D364" s="12"/>
+    </row>
+    <row r="365">
+      <c r="D365" s="12"/>
+    </row>
+    <row r="366">
+      <c r="D366" s="12"/>
+    </row>
+    <row r="367">
+      <c r="D367" s="12"/>
+    </row>
+    <row r="368">
+      <c r="D368" s="12"/>
+    </row>
+    <row r="369">
+      <c r="D369" s="12"/>
+    </row>
+    <row r="370">
+      <c r="D370" s="12"/>
+    </row>
+    <row r="371">
+      <c r="D371" s="12"/>
+    </row>
+    <row r="372">
+      <c r="D372" s="12"/>
+    </row>
+    <row r="373">
+      <c r="D373" s="12"/>
+    </row>
+    <row r="374">
+      <c r="D374" s="12"/>
+    </row>
+    <row r="375">
+      <c r="D375" s="12"/>
+    </row>
+    <row r="376">
+      <c r="D376" s="12"/>
+    </row>
+    <row r="377">
+      <c r="D377" s="12"/>
+    </row>
+    <row r="378">
+      <c r="D378" s="12"/>
+    </row>
+    <row r="379">
+      <c r="D379" s="12"/>
+    </row>
+    <row r="380">
+      <c r="D380" s="12"/>
+    </row>
+    <row r="381">
+      <c r="D381" s="12"/>
+    </row>
+    <row r="382">
+      <c r="D382" s="12"/>
+    </row>
+    <row r="383">
+      <c r="D383" s="12"/>
+    </row>
+    <row r="384">
+      <c r="D384" s="12"/>
+    </row>
+    <row r="385">
+      <c r="D385" s="12"/>
+    </row>
+    <row r="386">
+      <c r="D386" s="12"/>
+    </row>
+    <row r="387">
+      <c r="D387" s="12"/>
+    </row>
+    <row r="388">
+      <c r="D388" s="12"/>
+    </row>
+    <row r="389">
+      <c r="D389" s="12"/>
+    </row>
+    <row r="390">
+      <c r="D390" s="12"/>
+    </row>
+    <row r="391">
+      <c r="D391" s="12"/>
+    </row>
+    <row r="392">
+      <c r="D392" s="12"/>
+    </row>
+    <row r="393">
+      <c r="D393" s="12"/>
+    </row>
+    <row r="394">
+      <c r="D394" s="12"/>
+    </row>
+    <row r="395">
+      <c r="D395" s="12"/>
+    </row>
+    <row r="396">
+      <c r="D396" s="12"/>
+    </row>
+    <row r="397">
+      <c r="D397" s="12"/>
+    </row>
+    <row r="398">
+      <c r="D398" s="12"/>
+    </row>
+    <row r="399">
+      <c r="D399" s="12"/>
+    </row>
+    <row r="400">
+      <c r="D400" s="12"/>
+    </row>
+    <row r="401">
+      <c r="D401" s="12"/>
+    </row>
+    <row r="402">
+      <c r="D402" s="12"/>
+    </row>
+    <row r="403">
+      <c r="D403" s="12"/>
+    </row>
+    <row r="404">
+      <c r="D404" s="12"/>
+    </row>
+    <row r="405">
+      <c r="D405" s="12"/>
+    </row>
+    <row r="406">
+      <c r="D406" s="12"/>
+    </row>
+    <row r="407">
+      <c r="D407" s="12"/>
+    </row>
+    <row r="408">
+      <c r="D408" s="12"/>
+    </row>
+    <row r="409">
+      <c r="D409" s="12"/>
+    </row>
+    <row r="410">
+      <c r="D410" s="12"/>
+    </row>
+    <row r="411">
+      <c r="D411" s="12"/>
+    </row>
+    <row r="412">
+      <c r="D412" s="12"/>
+    </row>
+    <row r="413">
+      <c r="D413" s="12"/>
+    </row>
+    <row r="414">
+      <c r="D414" s="12"/>
+    </row>
+    <row r="415">
+      <c r="D415" s="12"/>
+    </row>
+    <row r="416">
+      <c r="D416" s="12"/>
+    </row>
+    <row r="417">
+      <c r="D417" s="12"/>
+    </row>
+    <row r="418">
+      <c r="D418" s="12"/>
+    </row>
+    <row r="419">
+      <c r="D419" s="12"/>
+    </row>
+    <row r="420">
+      <c r="D420" s="12"/>
+    </row>
+    <row r="421">
+      <c r="D421" s="12"/>
+    </row>
+    <row r="422">
+      <c r="D422" s="12"/>
+    </row>
+    <row r="423">
+      <c r="D423" s="12"/>
+    </row>
+    <row r="424">
+      <c r="D424" s="12"/>
+    </row>
+    <row r="425">
+      <c r="D425" s="12"/>
+    </row>
+    <row r="426">
+      <c r="D426" s="12"/>
+    </row>
+    <row r="427">
+      <c r="D427" s="12"/>
+    </row>
+    <row r="428">
+      <c r="D428" s="12"/>
+    </row>
+    <row r="429">
+      <c r="D429" s="12"/>
+    </row>
+    <row r="430">
+      <c r="D430" s="12"/>
+    </row>
+    <row r="431">
+      <c r="D431" s="12"/>
+    </row>
+    <row r="432">
+      <c r="D432" s="12"/>
+    </row>
+    <row r="433">
+      <c r="D433" s="12"/>
+    </row>
+    <row r="434">
+      <c r="D434" s="12"/>
+    </row>
+    <row r="435">
+      <c r="D435" s="12"/>
+    </row>
+    <row r="436">
+      <c r="D436" s="12"/>
+    </row>
+    <row r="437">
+      <c r="D437" s="12"/>
+    </row>
+    <row r="438">
+      <c r="D438" s="12"/>
+    </row>
+    <row r="439">
+      <c r="D439" s="12"/>
+    </row>
+    <row r="440">
+      <c r="D440" s="12"/>
+    </row>
+    <row r="441">
+      <c r="D441" s="12"/>
+    </row>
+    <row r="442">
+      <c r="D442" s="12"/>
+    </row>
+    <row r="443">
+      <c r="D443" s="12"/>
+    </row>
+    <row r="444">
+      <c r="D444" s="12"/>
+    </row>
+    <row r="445">
+      <c r="D445" s="12"/>
+    </row>
+    <row r="446">
+      <c r="D446" s="12"/>
+    </row>
+    <row r="447">
+      <c r="D447" s="12"/>
+    </row>
+    <row r="448">
+      <c r="D448" s="12"/>
+    </row>
+    <row r="449">
+      <c r="D449" s="12"/>
+    </row>
+    <row r="450">
+      <c r="D450" s="12"/>
+    </row>
+    <row r="451">
+      <c r="D451" s="12"/>
+    </row>
+    <row r="452">
+      <c r="D452" s="12"/>
+    </row>
+    <row r="453">
+      <c r="D453" s="12"/>
+    </row>
+    <row r="454">
+      <c r="D454" s="12"/>
+    </row>
+    <row r="455">
+      <c r="D455" s="12"/>
+    </row>
+    <row r="456">
+      <c r="D456" s="12"/>
+    </row>
+    <row r="457">
+      <c r="D457" s="12"/>
+    </row>
+    <row r="458">
+      <c r="D458" s="12"/>
+    </row>
+    <row r="459">
+      <c r="D459" s="12"/>
+    </row>
+    <row r="460">
+      <c r="D460" s="12"/>
+    </row>
+    <row r="461">
+      <c r="D461" s="12"/>
+    </row>
+    <row r="462">
+      <c r="D462" s="12"/>
+    </row>
+    <row r="463">
+      <c r="D463" s="12"/>
+    </row>
+    <row r="464">
+      <c r="D464" s="12"/>
+    </row>
+    <row r="465">
+      <c r="D465" s="12"/>
+    </row>
+    <row r="466">
+      <c r="D466" s="12"/>
+    </row>
+    <row r="467">
+      <c r="D467" s="12"/>
+    </row>
+    <row r="468">
+      <c r="D468" s="12"/>
+    </row>
+    <row r="469">
+      <c r="D469" s="12"/>
+    </row>
+    <row r="470">
+      <c r="D470" s="12"/>
+    </row>
+    <row r="471">
+      <c r="D471" s="12"/>
+    </row>
+    <row r="472">
+      <c r="D472" s="12"/>
+    </row>
+    <row r="473">
+      <c r="D473" s="12"/>
+    </row>
+    <row r="474">
+      <c r="D474" s="12"/>
+    </row>
+    <row r="475">
+      <c r="D475" s="12"/>
+    </row>
+    <row r="476">
+      <c r="D476" s="12"/>
+    </row>
+    <row r="477">
+      <c r="D477" s="12"/>
+    </row>
+    <row r="478">
+      <c r="D478" s="12"/>
+    </row>
+    <row r="479">
+      <c r="D479" s="12"/>
+    </row>
+    <row r="480">
+      <c r="D480" s="12"/>
+    </row>
+    <row r="481">
+      <c r="D481" s="12"/>
+    </row>
+    <row r="482">
+      <c r="D482" s="12"/>
+    </row>
+    <row r="483">
+      <c r="D483" s="12"/>
+    </row>
+    <row r="484">
+      <c r="D484" s="12"/>
+    </row>
+    <row r="485">
+      <c r="D485" s="12"/>
+    </row>
+    <row r="486">
+      <c r="D486" s="12"/>
+    </row>
+    <row r="487">
+      <c r="D487" s="12"/>
+    </row>
+    <row r="488">
+      <c r="D488" s="12"/>
+    </row>
+    <row r="489">
+      <c r="D489" s="12"/>
+    </row>
+    <row r="490">
+      <c r="D490" s="12"/>
+    </row>
+    <row r="491">
+      <c r="D491" s="12"/>
+    </row>
+    <row r="492">
+      <c r="D492" s="12"/>
+    </row>
+    <row r="493">
+      <c r="D493" s="12"/>
+    </row>
+    <row r="494">
+      <c r="D494" s="12"/>
+    </row>
+    <row r="495">
+      <c r="D495" s="12"/>
+    </row>
+    <row r="496">
+      <c r="D496" s="12"/>
+    </row>
+    <row r="497">
+      <c r="D497" s="12"/>
+    </row>
+    <row r="498">
+      <c r="D498" s="12"/>
+    </row>
+    <row r="499">
+      <c r="D499" s="12"/>
+    </row>
+    <row r="500">
+      <c r="D500" s="12"/>
+    </row>
+    <row r="501">
+      <c r="D501" s="12"/>
+    </row>
+    <row r="502">
+      <c r="D502" s="12"/>
+    </row>
+    <row r="503">
+      <c r="D503" s="12"/>
+    </row>
+    <row r="504">
+      <c r="D504" s="12"/>
+    </row>
+    <row r="505">
+      <c r="D505" s="12"/>
+    </row>
+    <row r="506">
+      <c r="D506" s="12"/>
+    </row>
+    <row r="507">
+      <c r="D507" s="12"/>
+    </row>
+    <row r="508">
+      <c r="D508" s="12"/>
+    </row>
+    <row r="509">
+      <c r="D509" s="12"/>
+    </row>
+    <row r="510">
+      <c r="D510" s="12"/>
+    </row>
+    <row r="511">
+      <c r="D511" s="12"/>
+    </row>
+    <row r="512">
+      <c r="D512" s="12"/>
+    </row>
+    <row r="513">
+      <c r="D513" s="12"/>
+    </row>
+    <row r="514">
+      <c r="D514" s="12"/>
+    </row>
+    <row r="515">
+      <c r="D515" s="12"/>
+    </row>
+    <row r="516">
+      <c r="D516" s="12"/>
+    </row>
+    <row r="517">
+      <c r="D517" s="12"/>
+    </row>
+    <row r="518">
+      <c r="D518" s="12"/>
+    </row>
+    <row r="519">
+      <c r="D519" s="12"/>
+    </row>
+    <row r="520">
+      <c r="D520" s="12"/>
+    </row>
+    <row r="521">
+      <c r="D521" s="12"/>
+    </row>
+    <row r="522">
+      <c r="D522" s="12"/>
+    </row>
+    <row r="523">
+      <c r="D523" s="12"/>
+    </row>
+    <row r="524">
+      <c r="D524" s="12"/>
+    </row>
+    <row r="525">
+      <c r="D525" s="12"/>
+    </row>
+    <row r="526">
+      <c r="D526" s="12"/>
+    </row>
+    <row r="527">
+      <c r="D527" s="12"/>
+    </row>
+    <row r="528">
+      <c r="D528" s="12"/>
+    </row>
+    <row r="529">
+      <c r="D529" s="12"/>
+    </row>
+    <row r="530">
+      <c r="D530" s="12"/>
+    </row>
+    <row r="531">
+      <c r="D531" s="12"/>
+    </row>
+    <row r="532">
+      <c r="D532" s="12"/>
+    </row>
+    <row r="533">
+      <c r="D533" s="12"/>
+    </row>
+    <row r="534">
+      <c r="D534" s="12"/>
+    </row>
+    <row r="535">
+      <c r="D535" s="12"/>
+    </row>
+    <row r="536">
+      <c r="D536" s="12"/>
+    </row>
+    <row r="537">
+      <c r="D537" s="12"/>
+    </row>
+    <row r="538">
+      <c r="D538" s="12"/>
+    </row>
+    <row r="539">
+      <c r="D539" s="12"/>
+    </row>
+    <row r="540">
+      <c r="D540" s="12"/>
+    </row>
+    <row r="541">
+      <c r="D541" s="12"/>
+    </row>
+    <row r="542">
+      <c r="D542" s="12"/>
+    </row>
+    <row r="543">
+      <c r="D543" s="12"/>
+    </row>
+    <row r="544">
+      <c r="D544" s="12"/>
+    </row>
+    <row r="545">
+      <c r="D545" s="12"/>
+    </row>
+    <row r="546">
+      <c r="D546" s="12"/>
+    </row>
+    <row r="547">
+      <c r="D547" s="12"/>
+    </row>
+    <row r="548">
+      <c r="D548" s="12"/>
+    </row>
+    <row r="549">
+      <c r="D549" s="12"/>
+    </row>
+    <row r="550">
+      <c r="D550" s="12"/>
+    </row>
+    <row r="551">
+      <c r="D551" s="12"/>
+    </row>
+    <row r="552">
+      <c r="D552" s="12"/>
+    </row>
+    <row r="553">
+      <c r="D553" s="12"/>
+    </row>
+    <row r="554">
+      <c r="D554" s="12"/>
+    </row>
+    <row r="555">
+      <c r="D555" s="12"/>
+    </row>
+    <row r="556">
+      <c r="D556" s="12"/>
+    </row>
+    <row r="557">
+      <c r="D557" s="12"/>
+    </row>
+    <row r="558">
+      <c r="D558" s="12"/>
+    </row>
+    <row r="559">
+      <c r="D559" s="12"/>
+    </row>
+    <row r="560">
+      <c r="D560" s="12"/>
+    </row>
+    <row r="561">
+      <c r="D561" s="12"/>
+    </row>
+    <row r="562">
+      <c r="D562" s="12"/>
+    </row>
+    <row r="563">
+      <c r="D563" s="12"/>
+    </row>
+    <row r="564">
+      <c r="D564" s="12"/>
+    </row>
+    <row r="565">
+      <c r="D565" s="12"/>
+    </row>
+    <row r="566">
+      <c r="D566" s="12"/>
+    </row>
+    <row r="567">
+      <c r="D567" s="12"/>
+    </row>
+    <row r="568">
+      <c r="D568" s="12"/>
+    </row>
+    <row r="569">
+      <c r="D569" s="12"/>
+    </row>
+    <row r="570">
+      <c r="D570" s="12"/>
+    </row>
+    <row r="571">
+      <c r="D571" s="12"/>
+    </row>
+    <row r="572">
+      <c r="D572" s="12"/>
+    </row>
+    <row r="573">
+      <c r="D573" s="12"/>
+    </row>
+    <row r="574">
+      <c r="D574" s="12"/>
+    </row>
+    <row r="575">
+      <c r="D575" s="12"/>
+    </row>
+    <row r="576">
+      <c r="D576" s="12"/>
+    </row>
+    <row r="577">
+      <c r="D577" s="12"/>
+    </row>
+    <row r="578">
+      <c r="D578" s="12"/>
+    </row>
+    <row r="579">
+      <c r="D579" s="12"/>
+    </row>
+    <row r="580">
+      <c r="D580" s="12"/>
+    </row>
+    <row r="581">
+      <c r="D581" s="12"/>
+    </row>
+    <row r="582">
+      <c r="D582" s="12"/>
+    </row>
+    <row r="583">
+      <c r="D583" s="12"/>
+    </row>
+    <row r="584">
+      <c r="D584" s="12"/>
+    </row>
+    <row r="585">
+      <c r="D585" s="12"/>
+    </row>
+    <row r="586">
+      <c r="D586" s="12"/>
+    </row>
+    <row r="587">
+      <c r="D587" s="12"/>
+    </row>
+    <row r="588">
+      <c r="D588" s="12"/>
+    </row>
+    <row r="589">
+      <c r="D589" s="12"/>
+    </row>
+    <row r="590">
+      <c r="D590" s="12"/>
+    </row>
+    <row r="591">
+      <c r="D591" s="12"/>
+    </row>
+    <row r="592">
+      <c r="D592" s="12"/>
+    </row>
+    <row r="593">
+      <c r="D593" s="12"/>
+    </row>
+    <row r="594">
+      <c r="D594" s="12"/>
+    </row>
+    <row r="595">
+      <c r="D595" s="12"/>
+    </row>
+    <row r="596">
+      <c r="D596" s="12"/>
+    </row>
+    <row r="597">
+      <c r="D597" s="12"/>
+    </row>
+    <row r="598">
+      <c r="D598" s="12"/>
+    </row>
+    <row r="599">
+      <c r="D599" s="12"/>
+    </row>
+    <row r="600">
+      <c r="D600" s="12"/>
+    </row>
+    <row r="601">
+      <c r="D601" s="12"/>
+    </row>
+    <row r="602">
+      <c r="D602" s="12"/>
+    </row>
+    <row r="603">
+      <c r="D603" s="12"/>
+    </row>
+    <row r="604">
+      <c r="D604" s="12"/>
+    </row>
+    <row r="605">
+      <c r="D605" s="12"/>
+    </row>
+    <row r="606">
+      <c r="D606" s="12"/>
+    </row>
+    <row r="607">
+      <c r="D607" s="12"/>
+    </row>
+    <row r="608">
+      <c r="D608" s="12"/>
+    </row>
+    <row r="609">
+      <c r="D609" s="12"/>
+    </row>
+    <row r="610">
+      <c r="D610" s="12"/>
+    </row>
+    <row r="611">
+      <c r="D611" s="12"/>
+    </row>
+    <row r="612">
+      <c r="D612" s="12"/>
+    </row>
+    <row r="613">
+      <c r="D613" s="12"/>
+    </row>
+    <row r="614">
+      <c r="D614" s="12"/>
+    </row>
+    <row r="615">
+      <c r="D615" s="12"/>
+    </row>
+    <row r="616">
+      <c r="D616" s="12"/>
+    </row>
+    <row r="617">
+      <c r="D617" s="12"/>
+    </row>
+    <row r="618">
+      <c r="D618" s="12"/>
+    </row>
+    <row r="619">
+      <c r="D619" s="12"/>
+    </row>
+    <row r="620">
+      <c r="D620" s="12"/>
+    </row>
+    <row r="621">
+      <c r="D621" s="12"/>
+    </row>
+    <row r="622">
+      <c r="D622" s="12"/>
+    </row>
+    <row r="623">
+      <c r="D623" s="12"/>
+    </row>
+    <row r="624">
+      <c r="D624" s="12"/>
+    </row>
+    <row r="625">
+      <c r="D625" s="12"/>
+    </row>
+    <row r="626">
+      <c r="D626" s="12"/>
+    </row>
+    <row r="627">
+      <c r="D627" s="12"/>
+    </row>
+    <row r="628">
+      <c r="D628" s="12"/>
+    </row>
+    <row r="629">
+      <c r="D629" s="12"/>
+    </row>
+    <row r="630">
+      <c r="D630" s="12"/>
+    </row>
+    <row r="631">
+      <c r="D631" s="12"/>
+    </row>
+    <row r="632">
+      <c r="D632" s="12"/>
+    </row>
+    <row r="633">
+      <c r="D633" s="12"/>
+    </row>
+    <row r="634">
+      <c r="D634" s="12"/>
+    </row>
+    <row r="635">
+      <c r="D635" s="12"/>
+    </row>
+    <row r="636">
+      <c r="D636" s="12"/>
+    </row>
+    <row r="637">
+      <c r="D637" s="12"/>
+    </row>
+    <row r="638">
+      <c r="D638" s="12"/>
+    </row>
+    <row r="639">
+      <c r="D639" s="12"/>
+    </row>
+    <row r="640">
+      <c r="D640" s="12"/>
+    </row>
+    <row r="641">
+      <c r="D641" s="12"/>
+    </row>
+    <row r="642">
+      <c r="D642" s="12"/>
+    </row>
+    <row r="643">
+      <c r="D643" s="12"/>
+    </row>
+    <row r="644">
+      <c r="D644" s="12"/>
+    </row>
+    <row r="645">
+      <c r="D645" s="12"/>
+    </row>
+    <row r="646">
+      <c r="D646" s="12"/>
+    </row>
+    <row r="647">
+      <c r="D647" s="12"/>
+    </row>
+    <row r="648">
+      <c r="D648" s="12"/>
+    </row>
+    <row r="649">
+      <c r="D649" s="12"/>
+    </row>
+    <row r="650">
+      <c r="D650" s="12"/>
+    </row>
+    <row r="651">
+      <c r="D651" s="12"/>
+    </row>
+    <row r="652">
+      <c r="D652" s="12"/>
+    </row>
+    <row r="653">
+      <c r="D653" s="12"/>
+    </row>
+    <row r="654">
+      <c r="D654" s="12"/>
+    </row>
+    <row r="655">
+      <c r="D655" s="12"/>
+    </row>
+    <row r="656">
+      <c r="D656" s="12"/>
+    </row>
+    <row r="657">
+      <c r="D657" s="12"/>
+    </row>
+    <row r="658">
+      <c r="D658" s="12"/>
+    </row>
+    <row r="659">
+      <c r="D659" s="12"/>
+    </row>
+    <row r="660">
+      <c r="D660" s="12"/>
+    </row>
+    <row r="661">
+      <c r="D661" s="12"/>
+    </row>
+    <row r="662">
+      <c r="D662" s="12"/>
+    </row>
+    <row r="663">
+      <c r="D663" s="12"/>
+    </row>
+    <row r="664">
+      <c r="D664" s="12"/>
+    </row>
+    <row r="665">
+      <c r="D665" s="12"/>
+    </row>
+    <row r="666">
+      <c r="D666" s="12"/>
+    </row>
+    <row r="667">
+      <c r="D667" s="12"/>
+    </row>
+    <row r="668">
+      <c r="D668" s="12"/>
+    </row>
+    <row r="669">
+      <c r="D669" s="12"/>
+    </row>
+    <row r="670">
+      <c r="D670" s="12"/>
+    </row>
+    <row r="671">
+      <c r="D671" s="12"/>
+    </row>
+    <row r="672">
+      <c r="D672" s="12"/>
+    </row>
+    <row r="673">
+      <c r="D673" s="12"/>
+    </row>
+    <row r="674">
+      <c r="D674" s="12"/>
+    </row>
+    <row r="675">
+      <c r="D675" s="12"/>
+    </row>
+    <row r="676">
+      <c r="D676" s="12"/>
+    </row>
+    <row r="677">
+      <c r="D677" s="12"/>
+    </row>
+    <row r="678">
+      <c r="D678" s="12"/>
+    </row>
+    <row r="679">
+      <c r="D679" s="12"/>
+    </row>
+    <row r="680">
+      <c r="D680" s="12"/>
+    </row>
+    <row r="681">
+      <c r="D681" s="12"/>
+    </row>
+    <row r="682">
+      <c r="D682" s="12"/>
+    </row>
+    <row r="683">
+      <c r="D683" s="12"/>
+    </row>
+    <row r="684">
+      <c r="D684" s="12"/>
+    </row>
+    <row r="685">
+      <c r="D685" s="12"/>
+    </row>
+    <row r="686">
+      <c r="D686" s="12"/>
+    </row>
+    <row r="687">
+      <c r="D687" s="12"/>
+    </row>
+    <row r="688">
+      <c r="D688" s="12"/>
+    </row>
+    <row r="689">
+      <c r="D689" s="12"/>
+    </row>
+    <row r="690">
+      <c r="D690" s="12"/>
+    </row>
+    <row r="691">
+      <c r="D691" s="12"/>
+    </row>
+    <row r="692">
+      <c r="D692" s="12"/>
+    </row>
+    <row r="693">
+      <c r="D693" s="12"/>
+    </row>
+    <row r="694">
+      <c r="D694" s="12"/>
+    </row>
+    <row r="695">
+      <c r="D695" s="12"/>
+    </row>
+    <row r="696">
+      <c r="D696" s="12"/>
+    </row>
+    <row r="697">
+      <c r="D697" s="12"/>
+    </row>
+    <row r="698">
+      <c r="D698" s="12"/>
+    </row>
+    <row r="699">
+      <c r="D699" s="12"/>
+    </row>
+    <row r="700">
+      <c r="D700" s="12"/>
+    </row>
+    <row r="701">
+      <c r="D701" s="12"/>
+    </row>
+    <row r="702">
+      <c r="D702" s="12"/>
+    </row>
+    <row r="703">
+      <c r="D703" s="12"/>
+    </row>
+    <row r="704">
+      <c r="D704" s="12"/>
+    </row>
+    <row r="705">
+      <c r="D705" s="12"/>
+    </row>
+    <row r="706">
+      <c r="D706" s="12"/>
+    </row>
+    <row r="707">
+      <c r="D707" s="12"/>
+    </row>
+    <row r="708">
+      <c r="D708" s="12"/>
+    </row>
+    <row r="709">
+      <c r="D709" s="12"/>
+    </row>
+    <row r="710">
+      <c r="D710" s="12"/>
+    </row>
+    <row r="711">
+      <c r="D711" s="12"/>
+    </row>
+    <row r="712">
+      <c r="D712" s="12"/>
+    </row>
+    <row r="713">
+      <c r="D713" s="12"/>
+    </row>
+    <row r="714">
+      <c r="D714" s="12"/>
+    </row>
+    <row r="715">
+      <c r="D715" s="12"/>
+    </row>
+    <row r="716">
+      <c r="D716" s="12"/>
+    </row>
+    <row r="717">
+      <c r="D717" s="12"/>
+    </row>
+    <row r="718">
+      <c r="D718" s="12"/>
+    </row>
+    <row r="719">
+      <c r="D719" s="12"/>
+    </row>
+    <row r="720">
+      <c r="D720" s="12"/>
+    </row>
+    <row r="721">
+      <c r="D721" s="12"/>
+    </row>
+    <row r="722">
+      <c r="D722" s="12"/>
+    </row>
+    <row r="723">
+      <c r="D723" s="12"/>
+    </row>
+    <row r="724">
+      <c r="D724" s="12"/>
+    </row>
+    <row r="725">
+      <c r="D725" s="12"/>
+    </row>
+    <row r="726">
+      <c r="D726" s="12"/>
+    </row>
+    <row r="727">
+      <c r="D727" s="12"/>
+    </row>
+    <row r="728">
+      <c r="D728" s="12"/>
+    </row>
+    <row r="729">
+      <c r="D729" s="12"/>
+    </row>
+    <row r="730">
+      <c r="D730" s="12"/>
+    </row>
+    <row r="731">
+      <c r="D731" s="12"/>
+    </row>
+    <row r="732">
+      <c r="D732" s="12"/>
+    </row>
+    <row r="733">
+      <c r="D733" s="12"/>
+    </row>
+    <row r="734">
+      <c r="D734" s="12"/>
+    </row>
+    <row r="735">
+      <c r="D735" s="12"/>
+    </row>
+    <row r="736">
+      <c r="D736" s="12"/>
+    </row>
+    <row r="737">
+      <c r="D737" s="12"/>
+    </row>
+    <row r="738">
+      <c r="D738" s="12"/>
+    </row>
+    <row r="739">
+      <c r="D739" s="12"/>
+    </row>
+    <row r="740">
+      <c r="D740" s="12"/>
+    </row>
+    <row r="741">
+      <c r="D741" s="12"/>
+    </row>
+    <row r="742">
+      <c r="D742" s="12"/>
+    </row>
+    <row r="743">
+      <c r="D743" s="12"/>
+    </row>
+    <row r="744">
+      <c r="D744" s="12"/>
+    </row>
+    <row r="745">
+      <c r="D745" s="12"/>
+    </row>
+    <row r="746">
+      <c r="D746" s="12"/>
+    </row>
+    <row r="747">
+      <c r="D747" s="12"/>
+    </row>
+    <row r="748">
+      <c r="D748" s="12"/>
+    </row>
+    <row r="749">
+      <c r="D749" s="12"/>
+    </row>
+    <row r="750">
+      <c r="D750" s="12"/>
+    </row>
+    <row r="751">
+      <c r="D751" s="12"/>
+    </row>
+    <row r="752">
+      <c r="D752" s="12"/>
+    </row>
+    <row r="753">
+      <c r="D753" s="12"/>
+    </row>
+    <row r="754">
+      <c r="D754" s="12"/>
+    </row>
+    <row r="755">
+      <c r="D755" s="12"/>
+    </row>
+    <row r="756">
+      <c r="D756" s="12"/>
+    </row>
+    <row r="757">
+      <c r="D757" s="12"/>
+    </row>
+    <row r="758">
+      <c r="D758" s="12"/>
+    </row>
+    <row r="759">
+      <c r="D759" s="12"/>
+    </row>
+    <row r="760">
+      <c r="D760" s="12"/>
+    </row>
+    <row r="761">
+      <c r="D761" s="12"/>
+    </row>
+    <row r="762">
+      <c r="D762" s="12"/>
+    </row>
+    <row r="763">
+      <c r="D763" s="12"/>
+    </row>
+    <row r="764">
+      <c r="D764" s="12"/>
+    </row>
+    <row r="765">
+      <c r="D765" s="12"/>
+    </row>
+    <row r="766">
+      <c r="D766" s="12"/>
+    </row>
+    <row r="767">
+      <c r="D767" s="12"/>
+    </row>
+    <row r="768">
+      <c r="D768" s="12"/>
+    </row>
+    <row r="769">
+      <c r="D769" s="12"/>
+    </row>
+    <row r="770">
+      <c r="D770" s="12"/>
+    </row>
+    <row r="771">
+      <c r="D771" s="12"/>
+    </row>
+    <row r="772">
+      <c r="D772" s="12"/>
+    </row>
+    <row r="773">
+      <c r="D773" s="12"/>
+    </row>
+    <row r="774">
+      <c r="D774" s="12"/>
+    </row>
+    <row r="775">
+      <c r="D775" s="12"/>
+    </row>
+    <row r="776">
+      <c r="D776" s="12"/>
+    </row>
+    <row r="777">
+      <c r="D777" s="12"/>
+    </row>
+    <row r="778">
+      <c r="D778" s="12"/>
+    </row>
+    <row r="779">
+      <c r="D779" s="12"/>
+    </row>
+    <row r="780">
+      <c r="D780" s="12"/>
+    </row>
+    <row r="781">
+      <c r="D781" s="12"/>
+    </row>
+    <row r="782">
+      <c r="D782" s="12"/>
+    </row>
+    <row r="783">
+      <c r="D783" s="12"/>
+    </row>
+    <row r="784">
+      <c r="D784" s="12"/>
+    </row>
+    <row r="785">
+      <c r="D785" s="12"/>
+    </row>
+    <row r="786">
+      <c r="D786" s="12"/>
+    </row>
+    <row r="787">
+      <c r="D787" s="12"/>
+    </row>
+    <row r="788">
+      <c r="D788" s="12"/>
+    </row>
+    <row r="789">
+      <c r="D789" s="12"/>
+    </row>
+    <row r="790">
+      <c r="D790" s="12"/>
+    </row>
+    <row r="791">
+      <c r="D791" s="12"/>
+    </row>
+    <row r="792">
+      <c r="D792" s="12"/>
+    </row>
+    <row r="793">
+      <c r="D793" s="12"/>
+    </row>
+    <row r="794">
+      <c r="D794" s="12"/>
+    </row>
+    <row r="795">
+      <c r="D795" s="12"/>
+    </row>
+    <row r="796">
+      <c r="D796" s="12"/>
+    </row>
+    <row r="797">
+      <c r="D797" s="12"/>
+    </row>
+    <row r="798">
+      <c r="D798" s="12"/>
+    </row>
+    <row r="799">
+      <c r="D799" s="12"/>
+    </row>
+    <row r="800">
+      <c r="D800" s="12"/>
+    </row>
+    <row r="801">
+      <c r="D801" s="12"/>
+    </row>
+    <row r="802">
+      <c r="D802" s="12"/>
+    </row>
+    <row r="803">
+      <c r="D803" s="12"/>
+    </row>
+    <row r="804">
+      <c r="D804" s="12"/>
+    </row>
+    <row r="805">
+      <c r="D805" s="12"/>
+    </row>
+    <row r="806">
+      <c r="D806" s="12"/>
+    </row>
+    <row r="807">
+      <c r="D807" s="12"/>
+    </row>
+    <row r="808">
+      <c r="D808" s="12"/>
+    </row>
+    <row r="809">
+      <c r="D809" s="12"/>
+    </row>
+    <row r="810">
+      <c r="D810" s="12"/>
+    </row>
+    <row r="811">
+      <c r="D811" s="12"/>
+    </row>
+    <row r="812">
+      <c r="D812" s="12"/>
+    </row>
+    <row r="813">
+      <c r="D813" s="12"/>
+    </row>
+    <row r="814">
+      <c r="D814" s="12"/>
+    </row>
+    <row r="815">
+      <c r="D815" s="12"/>
+    </row>
+    <row r="816">
+      <c r="D816" s="12"/>
+    </row>
+    <row r="817">
+      <c r="D817" s="12"/>
+    </row>
+    <row r="818">
+      <c r="D818" s="12"/>
+    </row>
+    <row r="819">
+      <c r="D819" s="12"/>
+    </row>
+    <row r="820">
+      <c r="D820" s="12"/>
+    </row>
+    <row r="821">
+      <c r="D821" s="12"/>
+    </row>
+    <row r="822">
+      <c r="D822" s="12"/>
+    </row>
+    <row r="823">
+      <c r="D823" s="12"/>
+    </row>
+    <row r="824">
+      <c r="D824" s="12"/>
+    </row>
+    <row r="825">
+      <c r="D825" s="12"/>
+    </row>
+    <row r="826">
+      <c r="D826" s="12"/>
+    </row>
+    <row r="827">
+      <c r="D827" s="12"/>
+    </row>
+    <row r="828">
+      <c r="D828" s="12"/>
+    </row>
+    <row r="829">
+      <c r="D829" s="12"/>
+    </row>
+    <row r="830">
+      <c r="D830" s="12"/>
+    </row>
+    <row r="831">
+      <c r="D831" s="12"/>
+    </row>
+    <row r="832">
+      <c r="D832" s="12"/>
+    </row>
+    <row r="833">
+      <c r="D833" s="12"/>
+    </row>
+    <row r="834">
+      <c r="D834" s="12"/>
+    </row>
+    <row r="835">
+      <c r="D835" s="12"/>
+    </row>
+    <row r="836">
+      <c r="D836" s="12"/>
+    </row>
+    <row r="837">
+      <c r="D837" s="12"/>
+    </row>
+    <row r="838">
+      <c r="D838" s="12"/>
+    </row>
+    <row r="839">
+      <c r="D839" s="12"/>
+    </row>
+    <row r="840">
+      <c r="D840" s="12"/>
+    </row>
+    <row r="841">
+      <c r="D841" s="12"/>
+    </row>
+    <row r="842">
+      <c r="D842" s="12"/>
+    </row>
+    <row r="843">
+      <c r="D843" s="12"/>
+    </row>
+    <row r="844">
+      <c r="D844" s="12"/>
+    </row>
+    <row r="845">
+      <c r="D845" s="12"/>
+    </row>
+    <row r="846">
+      <c r="D846" s="12"/>
+    </row>
+    <row r="847">
+      <c r="D847" s="12"/>
+    </row>
+    <row r="848">
+      <c r="D848" s="12"/>
+    </row>
+    <row r="849">
+      <c r="D849" s="12"/>
+    </row>
+    <row r="850">
+      <c r="D850" s="12"/>
+    </row>
+    <row r="851">
+      <c r="D851" s="12"/>
+    </row>
+    <row r="852">
+      <c r="D852" s="12"/>
+    </row>
+    <row r="853">
+      <c r="D853" s="12"/>
+    </row>
+    <row r="854">
+      <c r="D854" s="12"/>
+    </row>
+    <row r="855">
+      <c r="D855" s="12"/>
+    </row>
+    <row r="856">
+      <c r="D856" s="12"/>
+    </row>
+    <row r="857">
+      <c r="D857" s="12"/>
+    </row>
+    <row r="858">
+      <c r="D858" s="12"/>
+    </row>
+    <row r="859">
+      <c r="D859" s="12"/>
+    </row>
+    <row r="860">
+      <c r="D860" s="12"/>
+    </row>
+    <row r="861">
+      <c r="D861" s="12"/>
+    </row>
+    <row r="862">
+      <c r="D862" s="12"/>
+    </row>
+    <row r="863">
+      <c r="D863" s="12"/>
+    </row>
+    <row r="864">
+      <c r="D864" s="12"/>
+    </row>
+    <row r="865">
+      <c r="D865" s="12"/>
+    </row>
+    <row r="866">
+      <c r="D866" s="12"/>
+    </row>
+    <row r="867">
+      <c r="D867" s="12"/>
+    </row>
+    <row r="868">
+      <c r="D868" s="12"/>
+    </row>
+    <row r="869">
+      <c r="D869" s="12"/>
+    </row>
+    <row r="870">
+      <c r="D870" s="12"/>
+    </row>
+    <row r="871">
+      <c r="D871" s="12"/>
+    </row>
+    <row r="872">
+      <c r="D872" s="12"/>
+    </row>
+    <row r="873">
+      <c r="D873" s="12"/>
+    </row>
+    <row r="874">
+      <c r="D874" s="12"/>
+    </row>
+    <row r="875">
+      <c r="D875" s="12"/>
+    </row>
+    <row r="876">
+      <c r="D876" s="12"/>
+    </row>
+    <row r="877">
+      <c r="D877" s="12"/>
+    </row>
+    <row r="878">
+      <c r="D878" s="12"/>
+    </row>
+    <row r="879">
+      <c r="D879" s="12"/>
+    </row>
+    <row r="880">
+      <c r="D880" s="12"/>
+    </row>
+    <row r="881">
+      <c r="D881" s="12"/>
+    </row>
+    <row r="882">
+      <c r="D882" s="12"/>
+    </row>
+    <row r="883">
+      <c r="D883" s="12"/>
+    </row>
+    <row r="884">
+      <c r="D884" s="12"/>
+    </row>
+    <row r="885">
+      <c r="D885" s="12"/>
+    </row>
+    <row r="886">
+      <c r="D886" s="12"/>
+    </row>
+    <row r="887">
+      <c r="D887" s="12"/>
+    </row>
+    <row r="888">
+      <c r="D888" s="12"/>
+    </row>
+    <row r="889">
+      <c r="D889" s="12"/>
+    </row>
+    <row r="890">
+      <c r="D890" s="12"/>
+    </row>
+    <row r="891">
+      <c r="D891" s="12"/>
+    </row>
+    <row r="892">
+      <c r="D892" s="12"/>
+    </row>
+    <row r="893">
+      <c r="D893" s="12"/>
+    </row>
+    <row r="894">
+      <c r="D894" s="12"/>
+    </row>
+    <row r="895">
+      <c r="D895" s="12"/>
+    </row>
+    <row r="896">
+      <c r="D896" s="12"/>
+    </row>
+    <row r="897">
+      <c r="D897" s="12"/>
+    </row>
+    <row r="898">
+      <c r="D898" s="12"/>
+    </row>
+    <row r="899">
+      <c r="D899" s="12"/>
+    </row>
+    <row r="900">
+      <c r="D900" s="12"/>
+    </row>
+    <row r="901">
+      <c r="D901" s="12"/>
+    </row>
+    <row r="902">
+      <c r="D902" s="12"/>
+    </row>
+    <row r="903">
+      <c r="D903" s="12"/>
+    </row>
+    <row r="904">
+      <c r="D904" s="12"/>
+    </row>
+    <row r="905">
+      <c r="D905" s="12"/>
+    </row>
+    <row r="906">
+      <c r="D906" s="12"/>
+    </row>
+    <row r="907">
+      <c r="D907" s="12"/>
+    </row>
+    <row r="908">
+      <c r="D908" s="12"/>
+    </row>
+    <row r="909">
+      <c r="D909" s="12"/>
+    </row>
+    <row r="910">
+      <c r="D910" s="12"/>
+    </row>
+    <row r="911">
+      <c r="D911" s="12"/>
+    </row>
+    <row r="912">
+      <c r="D912" s="12"/>
+    </row>
+    <row r="913">
+      <c r="D913" s="12"/>
+    </row>
+    <row r="914">
+      <c r="D914" s="12"/>
+    </row>
+    <row r="915">
+      <c r="D915" s="12"/>
+    </row>
+    <row r="916">
+      <c r="D916" s="12"/>
+    </row>
+    <row r="917">
+      <c r="D917" s="12"/>
+    </row>
+    <row r="918">
+      <c r="D918" s="12"/>
+    </row>
+    <row r="919">
+      <c r="D919" s="12"/>
+    </row>
+    <row r="920">
+      <c r="D920" s="12"/>
+    </row>
+    <row r="921">
+      <c r="D921" s="12"/>
+    </row>
+    <row r="922">
+      <c r="D922" s="12"/>
+    </row>
+    <row r="923">
+      <c r="D923" s="12"/>
+    </row>
+    <row r="924">
+      <c r="D924" s="12"/>
+    </row>
+    <row r="925">
+      <c r="D925" s="12"/>
+    </row>
+    <row r="926">
+      <c r="D926" s="12"/>
+    </row>
+    <row r="927">
+      <c r="D927" s="12"/>
+    </row>
+    <row r="928">
+      <c r="D928" s="12"/>
+    </row>
+    <row r="929">
+      <c r="D929" s="12"/>
+    </row>
+    <row r="930">
+      <c r="D930" s="12"/>
+    </row>
+    <row r="931">
+      <c r="D931" s="12"/>
+    </row>
+    <row r="932">
+      <c r="D932" s="12"/>
+    </row>
+    <row r="933">
+      <c r="D933" s="12"/>
+    </row>
+    <row r="934">
+      <c r="D934" s="12"/>
+    </row>
+    <row r="935">
+      <c r="D935" s="12"/>
+    </row>
+    <row r="936">
+      <c r="D936" s="12"/>
+    </row>
+    <row r="937">
+      <c r="D937" s="12"/>
+    </row>
+    <row r="938">
+      <c r="D938" s="12"/>
+    </row>
+    <row r="939">
+      <c r="D939" s="12"/>
+    </row>
+    <row r="940">
+      <c r="D940" s="12"/>
+    </row>
+    <row r="941">
+      <c r="D941" s="12"/>
+    </row>
+    <row r="942">
+      <c r="D942" s="12"/>
+    </row>
+    <row r="943">
+      <c r="D943" s="12"/>
+    </row>
+    <row r="944">
+      <c r="D944" s="12"/>
+    </row>
+    <row r="945">
+      <c r="D945" s="12"/>
+    </row>
+    <row r="946">
+      <c r="D946" s="12"/>
+    </row>
+    <row r="947">
+      <c r="D947" s="12"/>
+    </row>
+    <row r="948">
+      <c r="D948" s="12"/>
+    </row>
+    <row r="949">
+      <c r="D949" s="12"/>
+    </row>
+    <row r="950">
+      <c r="D950" s="12"/>
+    </row>
+    <row r="951">
+      <c r="D951" s="12"/>
+    </row>
+    <row r="952">
+      <c r="D952" s="12"/>
+    </row>
+    <row r="953">
+      <c r="D953" s="12"/>
+    </row>
+    <row r="954">
+      <c r="D954" s="12"/>
+    </row>
+    <row r="955">
+      <c r="D955" s="12"/>
+    </row>
+    <row r="956">
+      <c r="D956" s="12"/>
+    </row>
+    <row r="957">
+      <c r="D957" s="12"/>
+    </row>
+    <row r="958">
+      <c r="D958" s="12"/>
+    </row>
+    <row r="959">
+      <c r="D959" s="12"/>
+    </row>
+    <row r="960">
+      <c r="D960" s="12"/>
+    </row>
+    <row r="961">
+      <c r="D961" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="E1"/>
     <hyperlink r:id="rId2" ref="E2"/>
-    <hyperlink r:id="rId3" ref="D3"/>
-    <hyperlink r:id="rId4" ref="E3"/>
-    <hyperlink r:id="rId5" ref="D4"/>
-    <hyperlink r:id="rId6" ref="E4"/>
-    <hyperlink r:id="rId7" ref="D5"/>
-    <hyperlink r:id="rId8" ref="E5"/>
-    <hyperlink r:id="rId9" ref="D6"/>
-    <hyperlink r:id="rId10" ref="E6"/>
-    <hyperlink r:id="rId11" ref="D7"/>
-    <hyperlink r:id="rId12" ref="E7"/>
-    <hyperlink r:id="rId13" ref="D8"/>
-    <hyperlink r:id="rId14" ref="E8"/>
-    <hyperlink r:id="rId15" ref="E9"/>
-    <hyperlink r:id="rId16" ref="E10"/>
-    <hyperlink r:id="rId17" ref="E11"/>
-    <hyperlink r:id="rId18" ref="E12"/>
-    <hyperlink r:id="rId19" ref="E13"/>
-    <hyperlink r:id="rId20" ref="E14"/>
-    <hyperlink r:id="rId21" ref="E15"/>
-    <hyperlink r:id="rId22" ref="E16"/>
-    <hyperlink r:id="rId23" ref="E17"/>
-    <hyperlink r:id="rId24" ref="E18"/>
-    <hyperlink r:id="rId25" ref="E19"/>
-    <hyperlink r:id="rId26" ref="E20"/>
-    <hyperlink r:id="rId27" ref="E21"/>
-    <hyperlink r:id="rId28" ref="E22"/>
-    <hyperlink r:id="rId29" ref="E23"/>
-    <hyperlink r:id="rId30" ref="E24"/>
-    <hyperlink r:id="rId31" ref="E25"/>
-    <hyperlink r:id="rId32" ref="E26"/>
-    <hyperlink r:id="rId33" ref="E27"/>
-    <hyperlink r:id="rId34" ref="E28"/>
-    <hyperlink r:id="rId35" ref="E29"/>
-    <hyperlink r:id="rId36" ref="E30"/>
-    <hyperlink r:id="rId37" ref="E31"/>
-    <hyperlink r:id="rId38" ref="E32"/>
-    <hyperlink r:id="rId39" ref="E33"/>
-    <hyperlink r:id="rId40" ref="E34"/>
-    <hyperlink r:id="rId41" ref="E35"/>
-    <hyperlink r:id="rId42" ref="E36"/>
-    <hyperlink r:id="rId43" ref="E37"/>
-    <hyperlink r:id="rId44" ref="E38"/>
-    <hyperlink r:id="rId45" ref="E39"/>
-    <hyperlink r:id="rId46" ref="E40"/>
-    <hyperlink r:id="rId47" ref="E41"/>
-    <hyperlink r:id="rId48" ref="E42"/>
-    <hyperlink r:id="rId49" ref="E43"/>
-    <hyperlink r:id="rId50" ref="E44"/>
-    <hyperlink r:id="rId51" ref="E45"/>
-    <hyperlink r:id="rId52" ref="E46"/>
-    <hyperlink r:id="rId53" ref="E47"/>
-    <hyperlink r:id="rId54" ref="E48"/>
-    <hyperlink r:id="rId55" ref="E49"/>
-    <hyperlink r:id="rId56" ref="E50"/>
-    <hyperlink r:id="rId57" ref="E51"/>
-    <hyperlink r:id="rId58" ref="E52"/>
-    <hyperlink r:id="rId59" ref="E53"/>
-    <hyperlink r:id="rId60" ref="E54"/>
-    <hyperlink r:id="rId61" ref="E55"/>
-    <hyperlink r:id="rId62" ref="E56"/>
-    <hyperlink r:id="rId63" ref="E57"/>
-    <hyperlink r:id="rId64" ref="E58"/>
-    <hyperlink r:id="rId65" ref="E59"/>
-    <hyperlink r:id="rId66" ref="E60"/>
-    <hyperlink r:id="rId67" ref="E61"/>
-    <hyperlink r:id="rId68" ref="E62"/>
-    <hyperlink r:id="rId69" ref="E63"/>
-    <hyperlink r:id="rId70" ref="E64"/>
-    <hyperlink r:id="rId71" ref="E65"/>
-    <hyperlink r:id="rId72" ref="E66"/>
-    <hyperlink r:id="rId73" ref="E67"/>
-    <hyperlink r:id="rId74" ref="E68"/>
-    <hyperlink r:id="rId75" ref="E69"/>
-    <hyperlink r:id="rId76" ref="E70"/>
-    <hyperlink r:id="rId77" ref="E71"/>
-    <hyperlink r:id="rId78" ref="E72"/>
-    <hyperlink r:id="rId79" ref="E73"/>
-    <hyperlink r:id="rId80" ref="E74"/>
-    <hyperlink r:id="rId81" ref="E75"/>
-    <hyperlink r:id="rId82" ref="E76"/>
-    <hyperlink r:id="rId83" ref="E77"/>
-    <hyperlink r:id="rId84" ref="E78"/>
-    <hyperlink r:id="rId85" ref="E79"/>
-    <hyperlink r:id="rId86" ref="E80"/>
-    <hyperlink r:id="rId87" ref="E81"/>
-    <hyperlink r:id="rId88" ref="E82"/>
-    <hyperlink r:id="rId89" ref="E83"/>
-    <hyperlink r:id="rId90" ref="E84"/>
-    <hyperlink r:id="rId91" ref="E85"/>
-    <hyperlink r:id="rId92" ref="E86"/>
-    <hyperlink r:id="rId93" ref="E87"/>
-    <hyperlink r:id="rId94" ref="E88"/>
-    <hyperlink r:id="rId95" ref="E89"/>
-    <hyperlink r:id="rId96" ref="E90"/>
-    <hyperlink r:id="rId97" ref="E91"/>
-    <hyperlink r:id="rId98" ref="E92"/>
-    <hyperlink r:id="rId99" ref="E93"/>
-    <hyperlink r:id="rId100" ref="E94"/>
+    <hyperlink r:id="rId3" ref="E3"/>
+    <hyperlink r:id="rId4" ref="E4"/>
+    <hyperlink r:id="rId5" ref="E5"/>
+    <hyperlink r:id="rId6" ref="E6"/>
+    <hyperlink r:id="rId7" ref="E7"/>
+    <hyperlink r:id="rId8" ref="E8"/>
+    <hyperlink r:id="rId9" ref="E9"/>
+    <hyperlink r:id="rId10" ref="E10"/>
+    <hyperlink r:id="rId11" ref="E11"/>
+    <hyperlink r:id="rId12" ref="E12"/>
+    <hyperlink r:id="rId13" ref="E13"/>
+    <hyperlink r:id="rId14" ref="E14"/>
+    <hyperlink r:id="rId15" ref="E15"/>
+    <hyperlink r:id="rId16" ref="E16"/>
+    <hyperlink r:id="rId17" ref="E17"/>
+    <hyperlink r:id="rId18" ref="E18"/>
+    <hyperlink r:id="rId19" ref="E19"/>
+    <hyperlink r:id="rId20" ref="E20"/>
+    <hyperlink r:id="rId21" ref="E21"/>
+    <hyperlink r:id="rId22" ref="E22"/>
+    <hyperlink r:id="rId23" ref="E23"/>
+    <hyperlink r:id="rId24" ref="E24"/>
+    <hyperlink r:id="rId25" ref="E25"/>
+    <hyperlink r:id="rId26" ref="E26"/>
+    <hyperlink r:id="rId27" ref="E27"/>
+    <hyperlink r:id="rId28" ref="E28"/>
+    <hyperlink r:id="rId29" ref="E29"/>
+    <hyperlink r:id="rId30" ref="E30"/>
+    <hyperlink r:id="rId31" ref="E31"/>
+    <hyperlink r:id="rId32" ref="E32"/>
+    <hyperlink r:id="rId33" ref="E33"/>
+    <hyperlink r:id="rId34" ref="E34"/>
+    <hyperlink r:id="rId35" ref="E35"/>
+    <hyperlink r:id="rId36" ref="E36"/>
+    <hyperlink r:id="rId37" ref="E37"/>
+    <hyperlink r:id="rId38" ref="E38"/>
+    <hyperlink r:id="rId39" ref="E39"/>
+    <hyperlink r:id="rId40" ref="E40"/>
+    <hyperlink r:id="rId41" ref="E41"/>
+    <hyperlink r:id="rId42" ref="E42"/>
+    <hyperlink r:id="rId43" ref="E43"/>
+    <hyperlink r:id="rId44" ref="E44"/>
+    <hyperlink r:id="rId45" ref="E45"/>
+    <hyperlink r:id="rId46" ref="E46"/>
+    <hyperlink r:id="rId47" ref="E47"/>
+    <hyperlink r:id="rId48" ref="E48"/>
+    <hyperlink r:id="rId49" ref="E49"/>
+    <hyperlink r:id="rId50" ref="E50"/>
+    <hyperlink r:id="rId51" ref="E51"/>
+    <hyperlink r:id="rId52" ref="E52"/>
+    <hyperlink r:id="rId53" ref="E53"/>
+    <hyperlink r:id="rId54" ref="E54"/>
+    <hyperlink r:id="rId55" ref="E55"/>
+    <hyperlink r:id="rId56" ref="E56"/>
+    <hyperlink r:id="rId57" ref="E57"/>
+    <hyperlink r:id="rId58" ref="E58"/>
+    <hyperlink r:id="rId59" ref="E59"/>
+    <hyperlink r:id="rId60" ref="E60"/>
+    <hyperlink r:id="rId61" ref="E61"/>
+    <hyperlink r:id="rId62" ref="E62"/>
+    <hyperlink r:id="rId63" ref="E63"/>
+    <hyperlink r:id="rId64" ref="E64"/>
+    <hyperlink r:id="rId65" ref="E65"/>
+    <hyperlink r:id="rId66" ref="E66"/>
+    <hyperlink r:id="rId67" ref="E67"/>
+    <hyperlink r:id="rId68" ref="E68"/>
+    <hyperlink r:id="rId69" ref="E69"/>
+    <hyperlink r:id="rId70" ref="E70"/>
+    <hyperlink r:id="rId71" ref="E71"/>
+    <hyperlink r:id="rId72" ref="E72"/>
+    <hyperlink r:id="rId73" ref="E73"/>
+    <hyperlink r:id="rId74" ref="E74"/>
+    <hyperlink r:id="rId75" ref="E75"/>
+    <hyperlink r:id="rId76" ref="E76"/>
+    <hyperlink r:id="rId77" ref="E77"/>
+    <hyperlink r:id="rId78" ref="E78"/>
+    <hyperlink r:id="rId79" ref="E79"/>
+    <hyperlink r:id="rId80" ref="E80"/>
+    <hyperlink r:id="rId81" ref="E81"/>
+    <hyperlink r:id="rId82" ref="E82"/>
+    <hyperlink r:id="rId83" ref="E83"/>
+    <hyperlink r:id="rId84" ref="E84"/>
+    <hyperlink r:id="rId85" ref="E85"/>
+    <hyperlink r:id="rId86" ref="E86"/>
+    <hyperlink r:id="rId87" ref="E87"/>
+    <hyperlink r:id="rId88" ref="E88"/>
+    <hyperlink r:id="rId89" ref="E89"/>
+    <hyperlink r:id="rId90" ref="E90"/>
+    <hyperlink r:id="rId91" ref="E91"/>
+    <hyperlink r:id="rId92" ref="E92"/>
+    <hyperlink r:id="rId93" ref="E93"/>
+    <hyperlink r:id="rId94" ref="E94"/>
   </hyperlinks>
-  <drawing r:id="rId101"/>
+  <drawing r:id="rId95"/>
 </worksheet>
 </file>